--- a/modelos_jfa.xlsx
+++ b/modelos_jfa.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,5561 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Frete Grátis</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Qtde</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Preço Unitário</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Produto2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>575.37</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8055.18</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>FONTE BOB 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fonte carregador automotiva 120a amperes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>621.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6217.7</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>66</v>
+      </c>
+      <c r="F4" t="n">
+        <v>59.84</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3949.44</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CONTROLE ACQUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fonte carregador automotiva jfa 200a slim bivolt voltimetro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>779.54</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3897.7</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>jfa inversor 24v para 110v senoidal pura 2000w pico 4000w</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1689.54</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3379.08</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>INVERSOR 1000W</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>459.71</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3217.97</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>FONTE BOB 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 200a storm voltimetro digital mono 220v cor preto</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>758.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3034.8</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>FONTE 200A MONO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>336.33</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3026.97</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>FONTE LITE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>584.65</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2923.25</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 200a storm voltimetro digital mono 220v cor preto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>798.12</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2394.36</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>FONTE 200A MONO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>fonte carregador automotiva jfa 200a slim bivolt voltimetro</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>779.54</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2338.62</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>309761</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>fonte retificadora 24v/20a jfa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2199</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2199</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 200a storm voltimetro digital mono 220v cor preto</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>714.11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2142.33</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>FONTE 200A MONO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>inversor onda senoidal pura jfa 2000w 12v 110v pico 4000w</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2069.9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2069.9</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>INVERSOR 1000W</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FANTINELLI IMPORT.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>fonte automotiva 40 amperes jfa storm red line cca sci smart cor preto</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>410</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2050</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>FONTE 40A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>408.32</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2041.6</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>fonte carregador automotivo jfa 120a storm lite 12v bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>494.21</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1976.84</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>FONTE LITE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm lite 70a bivo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>482.57</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1930.28</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>FONTE LITE 70A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EXTREME ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>controle jfa 1200 acqua de longa distaci</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>30</v>
+      </c>
+      <c r="F20" t="n">
+        <v>61.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1852.5</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CONTROLE ACQUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>460.29</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1841.16</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>FONTE BOB 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>inversor onda senoidal pura jfa 2000w 24v 220v pico 4000w</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1799</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1799</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>INVERSOR 2000W</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KOALA PARTS 2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>389.76</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1559.04</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>KOALA PARTS 2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1503.6</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>FONTE LITE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1503.6</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>FONTE LITE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>715.66</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1431.32</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>FONTE BOB 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BASSAN PARTS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1369.08</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BEST ONLINE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>fonte carregador automotiva jfa 200a bob</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1286.12</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>FONTE BOB 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>fonte carregador automotivo jfa 40a lite storm slim bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>320</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>FONTE LITE 40A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa automotivo com 120 amperes medidor cca</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>621.77</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1243.54</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>inversor jfa 1000w senoidal puro 12v/127v</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1231.69</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1231.69</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>INVERSOR 1000W</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>389.76</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1169.28</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BASSAN PARTS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>514.4400000000001</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1028.88</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>FONTE BOB 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>controle remoto universal longa distancia jfa k1200 preto</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>17</v>
+      </c>
+      <c r="F34" t="n">
+        <v>58.13</v>
+      </c>
+      <c r="G34" t="n">
+        <v>988.21</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 70a bivolt com medidor cca</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>482.57</v>
+      </c>
+      <c r="G35" t="n">
+        <v>965.14</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>FONTE 70A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>fonte carregador automotiva storm sci redline jfa 200a slim cor preto</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>871.25</v>
+      </c>
+      <c r="G36" t="n">
+        <v>871.25</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EXTREME ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="G37" t="n">
+        <v>871.24</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>YTRIUM SHOP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa redline wr</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="G38" t="n">
+        <v>781.5599999999999</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>fonte carregador automotiva jfa 200a slim bivolt voltimetro</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>779.54</v>
+      </c>
+      <c r="G39" t="n">
+        <v>779.54</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>fonte carregador bateria jfa 90a bob sto</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>389.76</v>
+      </c>
+      <c r="G40" t="n">
+        <v>779.52</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>fonte carregador bob storm 200a slim bivolt automatico - jfa cor preto</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>715.66</v>
+      </c>
+      <c r="G41" t="n">
+        <v>715.66</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>FONTE BOB 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>fonte jfa 120a storm cca bivolt brinde l</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>694.99</v>
+      </c>
+      <c r="G42" t="n">
+        <v>694.99</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>REDE AUTOPARTS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="G43" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>fonte jfa 120a storm bivolt brinde contr</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="G44" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>REDE AUTOPARTS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm 120a bivolt c</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="G46" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PIKADULA PARTS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>fonte carregador automotivo jfa 120a sci bivolt pwm a melhor cor preto</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>653.42</v>
+      </c>
+      <c r="G47" t="n">
+        <v>653.42</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>filtro rca anti ruido jfa cd dvd radio m</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>11</v>
+      </c>
+      <c r="F48" t="n">
+        <v>58.99</v>
+      </c>
+      <c r="G48" t="n">
+        <v>648.89</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>fonte carregador bob storm 200a slim bivolt automatico - jfa cor preto</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="G49" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>FONTE BOB 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PIKADULA PARTS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>636.9400000000001</v>
+      </c>
+      <c r="G50" t="n">
+        <v>636.9400000000001</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>FONTE BOB 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>fonte automotiva 40 amperes jfa storm red line cca sci smart cor preto</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>FONTE 40A</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm lite 200a biv</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>628.36</v>
+      </c>
+      <c r="G52" t="n">
+        <v>628.36</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>FONTE LITE 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 200a lite storm slim bivolt cor azul</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>628.36</v>
+      </c>
+      <c r="G53" t="n">
+        <v>628.36</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>FONTE LITE 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>fonte carregador bateria bivolt jfa stor</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>621.77</v>
+      </c>
+      <c r="G54" t="n">
+        <v>621.77</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>621.77</v>
+      </c>
+      <c r="G55" t="n">
+        <v>621.77</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>602.45</v>
+      </c>
+      <c r="G56" t="n">
+        <v>602.45</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>FONTE BOB 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>584.65</v>
+      </c>
+      <c r="G57" t="n">
+        <v>584.65</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>KOALA PARTS 2</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>575.37</v>
+      </c>
+      <c r="G58" t="n">
+        <v>575.37</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>FONTE BOB 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>575.36</v>
+      </c>
+      <c r="G59" t="n">
+        <v>575.36</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FONTE BOB 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10756</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>processador de audio j4 redline jfa</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>559.9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>559.9</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm lite 120a biv</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>552.35</v>
+      </c>
+      <c r="G61" t="n">
+        <v>552.35</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>FONTE LITE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa 1200mtr wr p/ 99% dos aparelhos</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>6</v>
+      </c>
+      <c r="F62" t="n">
+        <v>89</v>
+      </c>
+      <c r="G62" t="n">
+        <v>534</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>fonte carregador automotivo jfa 120a storm lite 12v bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>528.39</v>
+      </c>
+      <c r="G63" t="n">
+        <v>528.39</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>FONTE LITE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>WE MARKET</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>514.9</v>
+      </c>
+      <c r="G64" t="n">
+        <v>514.9</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>FONTE BOB 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>KOALA PARTS 2</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>514.45</v>
+      </c>
+      <c r="G65" t="n">
+        <v>514.45</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>FONTE BOB 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TOTAL SOUND</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>fonte automotiva carregador jfa 60a sci</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="G66" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BASSAN PARTS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="G67" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>460.29</v>
+      </c>
+      <c r="G68" t="n">
+        <v>460.29</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>FONTE BOB 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>RODRIGOHAB</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>456.48</v>
+      </c>
+      <c r="G69" t="n">
+        <v>456.48</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TOTAL SOUND</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="G70" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SHOP ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="G71" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TECNOAUDIO</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>fonte carregadora jfa 90a para caixa som</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="G72" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SHOP ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>fonte carregadora jfa 90a para caixa som</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="G73" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa k600 branco com cinza</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="G74" t="n">
+        <v>439.2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>CONTROLE K600</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>RENOV VENDAS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="G75" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SHOP ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob 90 amperes bivo</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="G76" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="G77" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa k1200 preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>52.71</v>
+      </c>
+      <c r="G78" t="n">
+        <v>421.68</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BASSAN PARTS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>410.97</v>
+      </c>
+      <c r="G79" t="n">
+        <v>410.97</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>FONTE LITE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>408.32</v>
+      </c>
+      <c r="G80" t="n">
+        <v>408.32</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TOPSHITECH</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>408.32</v>
+      </c>
+      <c r="G81" t="n">
+        <v>408.32</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>TOPSHITECH</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>408.04</v>
+      </c>
+      <c r="G82" t="n">
+        <v>408.04</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BANDA SOM</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>conversor fio para rca remoto slim 12v jfa automotivo cd dvd</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>12</v>
+      </c>
+      <c r="F83" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="G83" t="n">
+        <v>404.28</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BEST ONLINE</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>fonte carregador automotivo jfa 60a stor</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>402.14</v>
+      </c>
+      <c r="G84" t="n">
+        <v>402.14</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm 40a bivolt ca</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>399.04</v>
+      </c>
+      <c r="G85" t="n">
+        <v>399.04</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>FONTE 40A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TOPSHITECH</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="G86" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>389</v>
+      </c>
+      <c r="G87" t="n">
+        <v>389</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>387.21</v>
+      </c>
+      <c r="G88" t="n">
+        <v>387.21</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>FONTE BOB 90A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>DI SOUND</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="G89" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>FONTE LITE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>RADICALSOM 2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="G90" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>FONTE LITE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RADICALSOM 2</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 60a storm lite bivo</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="G91" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>FONTE LITE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>fonte automotiva jfa storm lite 60a bivo</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="G92" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>FONTE LITE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PIKADULA PARTS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 70a lite slim bivol</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>374.68</v>
+      </c>
+      <c r="G93" t="n">
+        <v>374.68</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>FONTE LITE 70A</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>359.81</v>
+      </c>
+      <c r="G94" t="n">
+        <v>359.81</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>FONTE LITE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="G95" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>FONTE LITE 60A</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>VETA ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>controle jfa acqua k1200 longa distancia</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="G96" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa k600 preto com verde</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="G97" t="n">
+        <v>329.4</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>CONTROLE K600</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>fonte carregador jfa 50a lite slim bivol</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>318.66</v>
+      </c>
+      <c r="G98" t="n">
+        <v>318.66</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>FONTE LITE 50A</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EXTREME ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>controle jfa k1200 longa distancia 1200</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="G99" t="n">
+        <v>270.75</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MUNDO ELETROSS</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa acqua 1200</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>85</v>
+      </c>
+      <c r="G100" t="n">
+        <v>255</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>CONTROLE ACQUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>BASSAN PARTS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa acqua 1200</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>84</v>
+      </c>
+      <c r="G101" t="n">
+        <v>252</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>CONTROLE ACQUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>MUNDO ELETROSS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa acqua 1200</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>84</v>
+      </c>
+      <c r="G102" t="n">
+        <v>252</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>CONTROLE ACQUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MR STA CATARINA</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa redline wr</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>114.39</v>
+      </c>
+      <c r="G103" t="n">
+        <v>228.78</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MUNDO ELETROSS</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>voltimetro e sequenciador jfa vs5hi</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>57</v>
+      </c>
+      <c r="G104" t="n">
+        <v>228</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa k600 completo preto e cinza</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="G105" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>CONTROLE K600</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MUNDO ELETROSS</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa redline</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="G106" t="n">
+        <v>204.8</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>controle remoto jfa redline wr longo alcance de longa distan</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G107" t="n">
+        <v>197.8</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>conversor fio para rca remoto slim 12v jfa automotivo cd dvd</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>38.97</v>
+      </c>
+      <c r="G108" t="n">
+        <v>194.85</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>TOTAL SOUND</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>controle remoto universal longa distanci</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="G109" t="n">
+        <v>184.86</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>equalizador e balanceador de baterias so</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>184</v>
+      </c>
+      <c r="G110" t="n">
+        <v>184</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>controle remoto universal longa distancia jfa k1200 vermelho</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>56.27</v>
+      </c>
+      <c r="G111" t="n">
+        <v>168.81</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BANDA SOM</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>combo jfa controle distancia k1200 br +</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>141.55</v>
+      </c>
+      <c r="G112" t="n">
+        <v>141.55</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MUNDO ELETROSS</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa k1200</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>67</v>
+      </c>
+      <c r="G113" t="n">
+        <v>134</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>PEDROSO BIBI</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>jfa k1200  controle longa distancia p/ p</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="G114" t="n">
+        <v>127.28</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>controle remoto universal longa distancia jfa k1200 vermelho</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>61.19</v>
+      </c>
+      <c r="G115" t="n">
+        <v>122.38</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>controle de long distanc jfa k1200 resis</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="G116" t="n">
+        <v>119.98</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>BRAZIL ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa redline wr</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>110</v>
+      </c>
+      <c r="G117" t="n">
+        <v>110</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>RADICALSOM 2</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa k600 + bara</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="G118" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>CONTROLE K600</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>WEIMPORTS228720241015195527</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>controle longa distancia redline wr apar</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>109</v>
+      </c>
+      <c r="G119" t="n">
+        <v>109</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>EA AUDIO</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa redline wr</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="G120" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TIBAPARTS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa redline wr</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="G121" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa k600 preto</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>51.83</v>
+      </c>
+      <c r="G122" t="n">
+        <v>103.66</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>CONTROLE K600</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BEST ONLINE</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>filtro jfa anti ruido p/ toca cd dvd rad</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>101.85</v>
+      </c>
+      <c r="G123" t="n">
+        <v>101.85</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>DIGITALSHOP SC</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa redline wr</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>101.68</v>
+      </c>
+      <c r="G124" t="n">
+        <v>101.68</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa redline wr</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G125" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>YTRIUM SHOP</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa redline wr</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="G126" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa redline wr</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>91</v>
+      </c>
+      <c r="G127" t="n">
+        <v>91</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa redline wr</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>90.78</v>
+      </c>
+      <c r="G128" t="n">
+        <v>90.78</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>MUNDO ELETROSS</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>conversor fio para rca remoto slim 12v jfa automotivo cd dvd</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="G129" t="n">
+        <v>89</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="G130" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>CONTROLE ACQUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>MUNDO ELETROSS</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>85</v>
+      </c>
+      <c r="G131" t="n">
+        <v>85</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>CONTROLE ACQUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>BASSAN PARTS</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa acqua k1200</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>84</v>
+      </c>
+      <c r="G132" t="n">
+        <v>84</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>LIKE PARTS</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>controle jfa resistente agua automotivo</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>83.63</v>
+      </c>
+      <c r="G133" t="n">
+        <v>83.63</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>CONTROLE ACQUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>controle remoto jfa redline wr longo alcance de longa distan</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>77</v>
+      </c>
+      <c r="G134" t="n">
+        <v>77</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>CONTROLE REDLINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>OBVIUS ACOUSTIC BOX</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>conversor fio p/ rca jfa remoto cd dvd r</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>37</v>
+      </c>
+      <c r="G135" t="n">
+        <v>74</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>FANTINELLI IMPORT.</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="G136" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>CONTROLE ACQUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SHOP ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>controle jfa 1200 acqua de longa distaci</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>CONTROLE ACQUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>PEDROSO BIBI</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>jfa k1200 preto cordao + central + controle longa distancia</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>61.73</v>
+      </c>
+      <c r="G138" t="n">
+        <v>61.73</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>FANTINELLI IMPORT.</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>controle remoto universal longa jfa k1200 preto c/ verde</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>60.46</v>
+      </c>
+      <c r="G139" t="n">
+        <v>60.46</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>controle a longa distancia jfa k600 completo 600 metros cor preto com verde</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>58.54</v>
+      </c>
+      <c r="G140" t="n">
+        <v>58.54</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>CONTROLE K600</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>FANTINELLI IMPORT.</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa k1200 preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>57.13</v>
+      </c>
+      <c r="G141" t="n">
+        <v>57.13</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>filtro anti ruido jfa p/ rca cd dvd elet</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>55.71</v>
+      </c>
+      <c r="G142" t="n">
+        <v>55.71</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>PEDROSO BIBI</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>controle longa distancia jfa k600 completo preto e cinza</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>54.23</v>
+      </c>
+      <c r="G143" t="n">
+        <v>54.23</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>CONTROLE K600</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>controle remoto universal longa distancia jfa k1200 azul</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>54</v>
+      </c>
+      <c r="G144" t="n">
+        <v>54</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>CK SOUND</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>filtro anti-ruido jfa rca eletromagnetic</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>50.15</v>
+      </c>
+      <c r="G145" t="n">
+        <v>50.15</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>conversor de fio rca remoto slim jfa</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G146" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>conversor fio para rca remoto slim 12v j</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>38.97</v>
+      </c>
+      <c r="G147" t="n">
+        <v>38.97</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>fonte carregador de bateria jfa 120a lit</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>JFA ELETRONICOS</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>494.21</v>
+      </c>
+      <c r="G148" t="n">
+        <v>988.42</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>FONTE LITE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>fonte automotiva 70 amperes jfa storm carregador com cor preto</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>JFA ELETRONICOS</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="G149" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>FONTE 70A</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>MUNDO ELETROSS</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>voltimetro e sequenciador jfa vs5hi baix</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>JFA ELETRONICOS</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>60</v>
+      </c>
+      <c r="G150" t="n">
+        <v>360</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>voltimetro sequenciador automotivo digit</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>JFA ELETRONICOS</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="G151" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>BANDA SOM</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>jfa vs5hi - medidor bateria digital led</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>JFA ELETRONICOS</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>52.72</v>
+      </c>
+      <c r="G152" t="n">
+        <v>210.88</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>BANDA SOM</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>jfa v12 - voltimetro medidor bateria dig</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>JFA ELETRONICOS</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>56.99</v>
+      </c>
+      <c r="G153" t="n">
+        <v>56.99</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>BANDA SOM</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>capa controle jfa k1200 - atencao: somen</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>JFA ELETRONICOS</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="G154" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/modelos_jfa.xlsx
+++ b/modelos_jfa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>575.37</v>
+        <v>572.33</v>
       </c>
       <c r="G2" t="n">
-        <v>8055.18</v>
+        <v>6295.63</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -514,12 +514,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fonte carregador automotiva 120a amperes</t>
+          <t>fonte carregador automotivo jfa 60a stor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,29 +533,29 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>621.77</v>
+        <v>336.33</v>
       </c>
       <c r="G3" t="n">
-        <v>6217.7</v>
+        <v>4708.62</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
+          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,17 +569,17 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>59.84</v>
+        <v>459.71</v>
       </c>
       <c r="G4" t="n">
-        <v>3949.44</v>
+        <v>4597.1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fonte carregador automotiva jfa 200a slim bivolt voltimetro</t>
+          <t>fonte carregador jfa 120a bob slim bivol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,29 +605,29 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>779.54</v>
+        <v>460.29</v>
       </c>
       <c r="G5" t="n">
-        <v>3897.7</v>
+        <v>4142.61</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jfa inversor 24v para 110v senoidal pura 2000w pico 4000w</t>
+          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,17 +641,17 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="F6" t="n">
-        <v>1689.54</v>
+        <v>59.84</v>
       </c>
       <c r="G6" t="n">
-        <v>3379.08</v>
+        <v>3351.04</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>INVERSOR 1000W</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+          <t>fonte carregador jfa 90a bob storm slim</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,29 +677,29 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>459.71</v>
+        <v>408.32</v>
       </c>
       <c r="G7" t="n">
-        <v>3217.97</v>
+        <v>3266.56</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>FONTE BOB 90A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 200a storm voltimetro digital mono 220v cor preto</t>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -713,17 +713,17 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>758.7</v>
+        <v>389</v>
       </c>
       <c r="G8" t="n">
-        <v>3034.8</v>
+        <v>3112</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FONTE 200A MONO</t>
+          <t>FONTE BOB 90A</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+          <t>fonte carregador automotivo jfa 120a storm lite 12v bivolt cor preto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,29 +749,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>336.33</v>
+        <v>494.21</v>
       </c>
       <c r="G9" t="n">
-        <v>3026.97</v>
+        <v>2965.26</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>FONTE LITE 120A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
+          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -788,26 +788,26 @@
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>584.65</v>
+        <v>575.37</v>
       </c>
       <c r="G10" t="n">
-        <v>2923.25</v>
+        <v>2876.85</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 200a storm voltimetro digital mono 220v cor preto</t>
+          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -821,24 +821,24 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>798.12</v>
+        <v>336.33</v>
       </c>
       <c r="G11" t="n">
-        <v>2394.36</v>
+        <v>2690.64</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FONTE 200A MONO</t>
+          <t>FONTE LITE 60A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -872,12 +872,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>309761</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>fonte retificadora 24v/20a jfa</t>
+          <t>fonte carregador jfa 70a lite storm slim</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -891,29 +893,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>2199</v>
+        <v>376.68</v>
       </c>
       <c r="G13" t="n">
-        <v>2199</v>
+        <v>2260.08</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE LITE 70A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 200a storm voltimetro digital mono 220v cor preto</t>
+          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -927,29 +929,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>714.11</v>
+        <v>359.81</v>
       </c>
       <c r="G14" t="n">
-        <v>2142.33</v>
+        <v>1799.05</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>FONTE 200A MONO</t>
+          <t>FONTE LITE 60A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>inversor onda senoidal pura jfa 2000w 12v 110v pico 4000w</t>
+          <t>fonte carregador automotivo jfa 120a storm lite 12v bivolt cor preto</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -963,29 +965,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>2069.9</v>
+        <v>528.39</v>
       </c>
       <c r="G15" t="n">
-        <v>2069.9</v>
+        <v>1585.17</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>INVERSOR 1000W</t>
+          <t>FONTE LITE 120A</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FANTINELLI IMPORT.</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>fonte automotiva 40 amperes jfa storm red line cca sci smart cor preto</t>
+          <t>inversor 12v para 110v senoidal pura 1500w pico 3000w jfa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -999,29 +1001,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>410</v>
+        <v>1565.13</v>
       </c>
       <c r="G16" t="n">
-        <v>2050</v>
+        <v>1565.13</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FONTE 40A</t>
+          <t>INVERSOR 3000W</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1035,29 +1037,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>408.32</v>
+        <v>389</v>
       </c>
       <c r="G17" t="n">
-        <v>2041.6</v>
+        <v>1556</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>FONTE BOB 90A</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>fonte carregador automotivo jfa 120a storm lite 12v bivolt cor preto</t>
+          <t>fonte carregador automotiva jfa 200a slim bivolt voltimetro</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1071,29 +1073,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>494.21</v>
+        <v>742.41</v>
       </c>
       <c r="G18" t="n">
-        <v>1976.84</v>
+        <v>1484.82</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>fonte automotiva jfa storm lite 70a bivo</t>
+          <t>fonte carregador jfa 200a storm voltimetro digital mono 220v cor preto</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1107,29 +1109,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>482.57</v>
+        <v>714.11</v>
       </c>
       <c r="G19" t="n">
-        <v>1930.28</v>
+        <v>1428.22</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>FONTE LITE 70A</t>
+          <t>FONTE 200A MONO</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>controle jfa 1200 acqua de longa distaci</t>
+          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1143,29 +1145,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>61.75</v>
+        <v>621.77</v>
       </c>
       <c r="G20" t="n">
-        <v>1852.5</v>
+        <v>1243.54</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+          <t>fonte carregador jfa automotivo com 120 amperes medidor cca</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1179,29 +1181,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>460.29</v>
+        <v>621.77</v>
       </c>
       <c r="G21" t="n">
-        <v>1841.16</v>
+        <v>1243.54</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>inversor onda senoidal pura jfa 2000w 24v 220v pico 4000w</t>
+          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1215,29 +1217,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>1799</v>
+        <v>584.65</v>
       </c>
       <c r="G22" t="n">
-        <v>1799</v>
+        <v>1169.3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>INVERSOR 2000W</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1251,29 +1253,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>389.76</v>
+        <v>584.64</v>
       </c>
       <c r="G23" t="n">
-        <v>1559.04</v>
+        <v>1169.28</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>ULTRAFER</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+          <t>inversor jfa 49046 senoidal off-grid motorhome caminhao 1000w 12v/220v</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1287,29 +1289,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>375.9</v>
+        <v>1107</v>
       </c>
       <c r="G24" t="n">
-        <v>1503.6</v>
+        <v>1107</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>INVERSOR 1000W</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+          <t>fonte carregador jfa 120a bob slim bivol</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1323,17 +1325,17 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>375.9</v>
+        <v>460.29</v>
       </c>
       <c r="G25" t="n">
-        <v>1503.6</v>
+        <v>920.58</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1347,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
+          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1362,26 +1364,26 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>715.66</v>
+        <v>460.29</v>
       </c>
       <c r="G26" t="n">
-        <v>1431.32</v>
+        <v>920.58</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+          <t>controle remoto universal longa distancia jfa k1200 preto</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1395,29 +1397,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>456.36</v>
+        <v>58.13</v>
       </c>
       <c r="G27" t="n">
-        <v>1369.08</v>
+        <v>871.95</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>RENOV VENDAS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>fonte carregador automotiva jfa 200a bob</t>
+          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1434,26 +1436,26 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>643.0599999999999</v>
+        <v>406.6</v>
       </c>
       <c r="G28" t="n">
-        <v>1286.12</v>
+        <v>813.2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>RENOV VENDAS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>fonte carregador automotivo jfa 40a lite storm slim bivolt cor preto</t>
+          <t>fonte carregador automotivo jfa storm li</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1467,17 +1469,17 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>320</v>
+        <v>375.25</v>
       </c>
       <c r="G29" t="n">
-        <v>1280</v>
+        <v>750.5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FONTE LITE 40A</t>
+          <t>FONTE LITE 60A</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1491,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>fonte carregador jfa automotivo com 120 amperes medidor cca</t>
+          <t>fonte carregador automotiva jfa 200a sli</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1503,29 +1505,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>621.77</v>
+        <v>742.41</v>
       </c>
       <c r="G30" t="n">
-        <v>1243.54</v>
+        <v>742.41</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>inversor jfa 1000w senoidal puro 12v/127v</t>
+          <t>fonte carregador automotiva jfa 200a slim bivolt voltimetro</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1542,26 +1544,26 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1231.69</v>
+        <v>742.4</v>
       </c>
       <c r="G31" t="n">
-        <v>1231.69</v>
+        <v>742.4</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>INVERSOR 1000W</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>BEST ONLINE 2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+          <t>fonte carregador jfa 200a storm voltimetro digital mono 220v cor preto</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1575,29 +1577,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>389.76</v>
+        <v>714.11</v>
       </c>
       <c r="G32" t="n">
-        <v>1169.28</v>
+        <v>714.11</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>FONTE 200A MONO</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+          <t>fonte jfa 120a storm bivolt brinde contr</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1611,17 +1613,17 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>514.4400000000001</v>
+        <v>694.92</v>
       </c>
       <c r="G33" t="n">
-        <v>1028.88</v>
+        <v>694.92</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1635,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>controle remoto universal longa distancia jfa k1200 preto</t>
+          <t>fonte carregador jfa 200a lite storm slim bivolt cor azul</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1647,29 +1649,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>58.13</v>
+        <v>660.51</v>
       </c>
       <c r="G34" t="n">
-        <v>988.21</v>
+        <v>660.51</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>FONTE LITE 200A</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 70a bivolt com medidor cca</t>
+          <t>fonte carregador automotiva jfa 200a bob</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1683,29 +1685,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>482.57</v>
+        <v>640.33</v>
       </c>
       <c r="G35" t="n">
-        <v>965.14</v>
+        <v>640.33</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fonte carregador automotiva storm sci redline jfa 200a slim cor preto</t>
+          <t>fonte carregador jfa 200a lite storm slim bivolt cor azul</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1722,26 +1724,26 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>871.25</v>
+        <v>628.36</v>
       </c>
       <c r="G36" t="n">
-        <v>871.25</v>
+        <v>628.36</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>FONTE LITE 200A</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+          <t>fonte carregador jfa 200a lite storm slim bivolt cor azul</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1755,29 +1757,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>435.62</v>
+        <v>628.36</v>
       </c>
       <c r="G37" t="n">
-        <v>871.24</v>
+        <v>628.36</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>FONTE LITE 200A</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>YTRIUM SHOP</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa redline wr</t>
+          <t>fonte carregador jfa 200a lite storm slim bivolt cor azul</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1791,29 +1793,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>86.84</v>
+        <v>628.36</v>
       </c>
       <c r="G38" t="n">
-        <v>781.5599999999999</v>
+        <v>628.36</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>FONTE LITE 200A</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>fonte carregador automotiva jfa 200a slim bivolt voltimetro</t>
+          <t>fonte carregador automotivo jfa 200a storm lite mono 220v cor azul</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1830,26 +1832,26 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>779.54</v>
+        <v>626.11</v>
       </c>
       <c r="G39" t="n">
-        <v>779.54</v>
+        <v>626.11</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>FONTE LITE 200A MONO</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>fonte carregador bateria jfa 90a bob sto</t>
+          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1863,29 +1865,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>389.76</v>
+        <v>621.77</v>
       </c>
       <c r="G40" t="n">
-        <v>779.52</v>
+        <v>621.77</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fonte carregador bob storm 200a slim bivolt automatico - jfa cor preto</t>
+          <t>controle longa distancia jfa acqua 1200</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1899,29 +1901,29 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>715.66</v>
+        <v>84</v>
       </c>
       <c r="G41" t="n">
-        <v>715.66</v>
+        <v>588</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fonte jfa 120a storm cca bivolt brinde l</t>
+          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1938,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>694.99</v>
+        <v>584.65</v>
       </c>
       <c r="G42" t="n">
-        <v>694.99</v>
+        <v>584.65</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1952,12 +1954,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
+          <t>fonte automotivo carregador jfa sci 120-</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1974,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>694.92</v>
+        <v>584.64</v>
       </c>
       <c r="G43" t="n">
-        <v>694.92</v>
+        <v>584.64</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1988,12 +1990,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fonte jfa 120a storm bivolt brinde contr</t>
+          <t>fonte automotiva 120 a jfa carregador</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2010,10 +2012,10 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>694.92</v>
+        <v>584.64</v>
       </c>
       <c r="G44" t="n">
-        <v>694.92</v>
+        <v>584.64</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2024,12 +2026,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
+          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2046,26 +2048,26 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>653.4299999999999</v>
+        <v>575.37</v>
       </c>
       <c r="G45" t="n">
-        <v>653.4299999999999</v>
+        <v>575.37</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>ZARI PARTS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fonte automotiva jfa storm 120a bivolt c</t>
+          <t>fonte carregador bob storm 200a slim bivolt automatico - jfa cor preto</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2082,26 +2084,26 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>653.4299999999999</v>
+        <v>575.37</v>
       </c>
       <c r="G46" t="n">
-        <v>653.4299999999999</v>
+        <v>575.37</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>fonte carregador automotivo jfa 120a sci bivolt pwm a melhor cor preto</t>
+          <t>fonte carregador automotiva jfa 200a bob</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2118,26 +2120,26 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>653.42</v>
+        <v>575.37</v>
       </c>
       <c r="G47" t="n">
-        <v>653.42</v>
+        <v>575.37</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>filtro rca anti ruido jfa cd dvd radio m</t>
+          <t>fonte automotiva jfa storm lite 120a biv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2151,29 +2153,29 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>58.99</v>
+        <v>528.39</v>
       </c>
       <c r="G48" t="n">
-        <v>648.89</v>
+        <v>528.39</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE LITE 120A</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RENOV VENDAS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>fonte carregador bob storm 200a slim bivolt automatico - jfa cor preto</t>
+          <t>fonte carregador automotivo jfa storm li</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2190,26 +2192,26 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>643.0599999999999</v>
+        <v>527.25</v>
       </c>
       <c r="G49" t="n">
-        <v>643.0599999999999</v>
+        <v>527.25</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
+          <t>fonte carregador jfa storm lite 120a biv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2226,26 +2228,26 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>636.9400000000001</v>
+        <v>494.21</v>
       </c>
       <c r="G50" t="n">
-        <v>636.9400000000001</v>
+        <v>494.21</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE LITE 120A</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fonte automotiva 40 amperes jfa storm red line cca sci smart cor preto</t>
+          <t>fonte carregador automotivo jfa 120a storm lite 12v bivolt cor preto</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2259,29 +2261,29 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>317.2</v>
+        <v>494.21</v>
       </c>
       <c r="G51" t="n">
-        <v>634.4</v>
+        <v>494.21</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>FONTE 40A</t>
+          <t>FONTE LITE 120A</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>fonte automotiva jfa storm lite 200a biv</t>
+          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2298,26 +2300,26 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>628.36</v>
+        <v>460.29</v>
       </c>
       <c r="G52" t="n">
-        <v>628.36</v>
+        <v>460.29</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 200a lite storm slim bivolt cor azul</t>
+          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2334,26 +2336,26 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>628.36</v>
+        <v>460.28</v>
       </c>
       <c r="G53" t="n">
-        <v>628.36</v>
+        <v>460.28</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fonte carregador bateria bivolt jfa stor</t>
+          <t>fonte carregador jfa 70a bivolt com medidor cca</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2370,26 +2372,26 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>621.77</v>
+        <v>454.73</v>
       </c>
       <c r="G54" t="n">
-        <v>621.77</v>
+        <v>454.73</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
+          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2406,26 +2408,26 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>621.77</v>
+        <v>436.16</v>
       </c>
       <c r="G55" t="n">
-        <v>621.77</v>
+        <v>436.16</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
+          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2442,26 +2444,26 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>602.45</v>
+        <v>408.32</v>
       </c>
       <c r="G56" t="n">
-        <v>602.45</v>
+        <v>408.32</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>fonte automotiva 120a amperes jfa carregador cor preto</t>
+          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2478,26 +2480,26 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>584.65</v>
+        <v>408.32</v>
       </c>
       <c r="G57" t="n">
-        <v>584.65</v>
+        <v>408.32</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
+          <t>controle jfa k1200 longa distancia 1200</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2511,29 +2513,29 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>575.37</v>
+        <v>56.27</v>
       </c>
       <c r="G58" t="n">
-        <v>575.37</v>
+        <v>393.89</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>fonte automotiva jfa storm 200a bob carregador automatico bivolt cor bob 200a jfa</t>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2550,24 +2552,26 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>575.36</v>
+        <v>389.76</v>
       </c>
       <c r="G59" t="n">
-        <v>575.36</v>
+        <v>389.76</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE BOB 90A</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>10756</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>processador de audio j4 redline jfa</t>
+          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2584,26 +2588,26 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>559.9</v>
+        <v>389.76</v>
       </c>
       <c r="G60" t="n">
-        <v>559.9</v>
+        <v>389.76</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE BOB 90A</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>fonte automotiva jfa storm lite 120a biv</t>
+          <t>fonte carregador jfa 90a bob storm slim</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2620,26 +2624,26 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>552.35</v>
+        <v>389.75</v>
       </c>
       <c r="G61" t="n">
-        <v>552.35</v>
+        <v>389.75</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>FONTE BOB 90A</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa 1200mtr wr p/ 99% dos aparelhos</t>
+          <t>fonte carregador jfa bob storm 90a bivol</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2653,29 +2657,29 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>89</v>
+        <v>389.75</v>
       </c>
       <c r="G62" t="n">
-        <v>534</v>
+        <v>389.75</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>FONTE BOB 90A</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>fonte carregador automotivo jfa 120a storm lite 12v bivolt cor preto</t>
+          <t>controle jfa k1200 longa distancia 1200</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2689,29 +2693,29 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>528.39</v>
+        <v>54.15</v>
       </c>
       <c r="G63" t="n">
-        <v>528.39</v>
+        <v>379.05</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+          <t>fonte automotiva 40 amperes jfa storm red line cca sci smart cor preto</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2728,26 +2732,26 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>514.9</v>
+        <v>371.2</v>
       </c>
       <c r="G64" t="n">
-        <v>514.9</v>
+        <v>371.2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+          <t>controle longa distancia jfa k1200 preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2761,29 +2765,29 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>514.45</v>
+        <v>52.71</v>
       </c>
       <c r="G65" t="n">
-        <v>514.45</v>
+        <v>368.97</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TOTAL SOUND</t>
+          <t>FANTINELLI IMPORT.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>fonte automotiva carregador jfa 60a sci</t>
+          <t>controle longa distancia jfa k1200 preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2797,29 +2801,29 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>487.48</v>
+        <v>52.06</v>
       </c>
       <c r="G66" t="n">
-        <v>487.48</v>
+        <v>364.42</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+          <t>fonte carregador automotivo jfa 60a stor</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2836,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>487.48</v>
+        <v>359.81</v>
       </c>
       <c r="G67" t="n">
-        <v>487.48</v>
+        <v>359.81</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2850,12 +2854,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 120a bob slim bivolt cor preto</t>
+          <t>voltimetro e sequenciador jfa vs5hi</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2869,29 +2873,29 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>460.29</v>
+        <v>57</v>
       </c>
       <c r="G68" t="n">
-        <v>460.29</v>
+        <v>342</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RODRIGOHAB</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+          <t>controle longa distancia jfa k600 completo preto e cinza</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2905,29 +2909,29 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
-        <v>456.48</v>
+        <v>56.9</v>
       </c>
       <c r="G69" t="n">
-        <v>456.48</v>
+        <v>341.4</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TOTAL SOUND</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2941,29 +2945,29 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>456.36</v>
+        <v>85</v>
       </c>
       <c r="G70" t="n">
-        <v>456.36</v>
+        <v>340</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SHOP ÁUDIO</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+          <t>fonte carregador automotivo jfa 60a stor</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2980,26 +2984,26 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>456.36</v>
+        <v>336.32</v>
       </c>
       <c r="G71" t="n">
-        <v>456.36</v>
+        <v>336.32</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TECNOAUDIO</t>
+          <t>RENOV VENDAS</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fonte carregadora jfa 90a para caixa som</t>
+          <t>fonte carregador automotivo jfa 40a lite storm slim bivolt cor preto</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3016,26 +3020,26 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>456.36</v>
+        <v>321.1</v>
       </c>
       <c r="G72" t="n">
-        <v>456.36</v>
+        <v>321.1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>FONTE LITE 40A</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SHOP ÁUDIO</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>fonte carregadora jfa 90a para caixa som</t>
+          <t>controle longa distancia jfa k1200</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3049,29 +3053,29 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
-        <v>456.36</v>
+        <v>64</v>
       </c>
       <c r="G73" t="n">
-        <v>456.36</v>
+        <v>320</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>EXTREME ÁUDIO</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa k600 branco com cinza</t>
+          <t>controle jfa 1200 acqua de longa distaci</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3085,29 +3089,29 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>54.9</v>
+        <v>61.75</v>
       </c>
       <c r="G74" t="n">
-        <v>439.2</v>
+        <v>308.75</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RENOV VENDAS</t>
+          <t>ENERGY SOUND</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+          <t>jfa k1200 ( central + controle distancia</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3121,29 +3125,29 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
-        <v>435.62</v>
+        <v>51.3</v>
       </c>
       <c r="G75" t="n">
-        <v>435.62</v>
+        <v>307.8</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SHOP ÁUDIO</t>
+          <t>FANTINELLI IMPORT.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob 90 amperes bivo</t>
+          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3157,29 +3161,29 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>435.62</v>
+        <v>53.99</v>
       </c>
       <c r="G76" t="n">
-        <v>435.62</v>
+        <v>269.95</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>YTRIUM SHOP</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+          <t>controle longa distancia jfa redline wr</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3193,29 +3197,29 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>435.62</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>435.62</v>
+        <v>259.29</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MR STA CATARINA</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa k1200 preto/laranja 1200mt</t>
+          <t>controle longa distancia jfa redline wr</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3229,29 +3233,29 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>52.71</v>
+        <v>114.39</v>
       </c>
       <c r="G78" t="n">
-        <v>421.68</v>
+        <v>228.78</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+          <t>controle longa distancia jfa k600 preto com verde</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3265,29 +3269,29 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>410.97</v>
+        <v>54.9</v>
       </c>
       <c r="G79" t="n">
-        <v>410.97</v>
+        <v>219.6</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+          <t>controle longa distancia jfa k600 branco com cinza</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3301,29 +3305,29 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>408.32</v>
+        <v>54.9</v>
       </c>
       <c r="G80" t="n">
-        <v>408.32</v>
+        <v>219.6</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 60a bivolt storm com medidor cca</t>
+          <t>controle remoto universal longa jfa k120</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3337,29 +3341,29 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>408.32</v>
+        <v>61.19</v>
       </c>
       <c r="G81" t="n">
-        <v>408.32</v>
+        <v>183.57</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>PLAYNETWORK TECN</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+          <t>equalizador e balanceador banco de bater</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3376,26 +3380,26 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>408.04</v>
+        <v>169</v>
       </c>
       <c r="G82" t="n">
-        <v>408.04</v>
+        <v>169</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>conversor fio para rca remoto slim 12v jfa automotivo cd dvd</t>
+          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3409,29 +3413,29 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>33.69</v>
+        <v>84</v>
       </c>
       <c r="G83" t="n">
-        <v>404.28</v>
+        <v>168</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>fonte carregador automotivo jfa 60a stor</t>
+          <t>controle longa distancia completo jfa k6</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3445,17 +3449,17 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>402.14</v>
+        <v>54.99</v>
       </c>
       <c r="G84" t="n">
-        <v>402.14</v>
+        <v>164.97</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3471,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>fonte automotiva jfa storm 40a bivolt ca</t>
+          <t>controle longa distancia jfa redline wr</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3481,29 +3485,29 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>399.04</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>399.04</v>
+        <v>157.8</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FONTE 40A</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+          <t>controle longa distancia jfa k600 preto</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3517,29 +3521,29 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>389.5</v>
+        <v>51.83</v>
       </c>
       <c r="G86" t="n">
-        <v>389.5</v>
+        <v>155.49</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>POWER3</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+          <t>controle longa distancia jfa 1200mtr wr p/ 99% dos aparelhos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3556,14 +3560,14 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>389</v>
+        <v>140.15</v>
       </c>
       <c r="G87" t="n">
-        <v>389</v>
+        <v>140.15</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3579,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>fonte carregador jfa bob storm 90a bivolt automatico cor preto</t>
+          <t>controle remoto universal longa distancia jfa k1200 vermelho</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3589,29 +3593,29 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>387.21</v>
+        <v>61.19</v>
       </c>
       <c r="G88" t="n">
-        <v>387.21</v>
+        <v>122.38</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DI SOUND</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+          <t>kit 2 controles longa distancia jfa preto com verde k600 m</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3628,26 +3632,26 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>375.9</v>
+        <v>119</v>
       </c>
       <c r="G89" t="n">
-        <v>375.9</v>
+        <v>119</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RADICALSOM 2</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+          <t>filtro rca anti-ruido jfa</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3661,29 +3665,29 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>375.9</v>
+        <v>58.9</v>
       </c>
       <c r="G90" t="n">
-        <v>375.9</v>
+        <v>117.8</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RADICALSOM 2</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 60a storm lite bivo</t>
+          <t>controle remoto longa distancia jfa k600 laranja/preto</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3697,29 +3701,29 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
-        <v>375.9</v>
+        <v>52.9</v>
       </c>
       <c r="G91" t="n">
-        <v>375.9</v>
+        <v>105.8</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>YTRIUM SHOP</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>fonte automotiva jfa storm lite 60a bivo</t>
+          <t>controle longa distancia jfa k1200 verme</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3733,29 +3737,29 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>375.9</v>
+        <v>52.01</v>
       </c>
       <c r="G92" t="n">
-        <v>375.9</v>
+        <v>104.02</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 70a lite slim bivol</t>
+          <t>controle remoto jfa redline wr longo alcance de longa distan</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3772,26 +3776,26 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>374.68</v>
+        <v>102.4</v>
       </c>
       <c r="G93" t="n">
-        <v>374.68</v>
+        <v>102.4</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>FONTE LITE 70A</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>DIGITALSHOP SC</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+          <t>controle longa distancia jfa redline wr</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3808,26 +3812,26 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>359.81</v>
+        <v>101.68</v>
       </c>
       <c r="G94" t="n">
-        <v>359.81</v>
+        <v>101.68</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BANDA SOM</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jfa fonte carregador storm lite 60a 3000 w preto</t>
+          <t>conversor fio para rca remoto slim 12v jfa automotivo cd dvd</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3841,29 +3845,29 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>359.8</v>
+        <v>33.69</v>
       </c>
       <c r="G95" t="n">
-        <v>359.8</v>
+        <v>101.07</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>VETA ACESSÓRIOS</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>controle jfa acqua k1200 longa distancia</t>
+          <t>controle longa distancia jfa redline wr</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3877,29 +3881,29 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>67.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>337.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa k600 preto com verde</t>
+          <t>controle longa distancia jfa redline wr</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3913,17 +3917,17 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>54.9</v>
+        <v>91</v>
       </c>
       <c r="G97" t="n">
-        <v>329.4</v>
+        <v>91</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3939,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>fonte carregador jfa 50a lite slim bivol</t>
+          <t>controle remoto jfa redline wr longo alcance de longa distan</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3952,26 +3956,26 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>318.66</v>
+        <v>90.78</v>
       </c>
       <c r="G98" t="n">
-        <v>318.66</v>
+        <v>90.78</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>FONTE LITE 50A</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EXTREME ÁUDIO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>controle jfa k1200 longa distancia 1200</t>
+          <t>controle longa distancia jfa redline wr</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3985,24 +3989,24 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>54.15</v>
+        <v>89</v>
       </c>
       <c r="G99" t="n">
-        <v>270.75</v>
+        <v>89</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4021,13 +4025,13 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G100" t="n">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -4043,7 +4047,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa acqua 1200</t>
+          <t>controle remoto universal longa distancia jfa k1200 azul</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4057,29 +4061,29 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G101" t="n">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>SRX DISTRIBUIDORA</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa acqua 1200</t>
+          <t>controle de longa distancia jfa acqua 12</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4093,13 +4097,13 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>84</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>252</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4110,12 +4114,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MR STA CATARINA</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa redline wr</t>
+          <t>conversor fio para rca remoto slim 12v jfa automotivo cd dvd</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4132,26 +4136,26 @@
         <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>114.39</v>
+        <v>38.97</v>
       </c>
       <c r="G103" t="n">
-        <v>228.78</v>
+        <v>77.94</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>TUBARÃO20231107113947</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>voltimetro e sequenciador jfa vs5hi</t>
+          <t>filtro anti ruido jfa p/ rca cd dvd tira</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4165,13 +4169,13 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G104" t="n">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -4182,12 +4186,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>RODRIGOHAB</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa k600 completo preto e cinza</t>
+          <t>controle longa distancia jfa acqua 1200</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4201,29 +4205,29 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>56.9</v>
+        <v>72.19</v>
       </c>
       <c r="G105" t="n">
-        <v>227.6</v>
+        <v>72.19</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>VETA ACESSÓRIOS</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa redline</t>
+          <t>controle jfa acqua k1200 longa distancia</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4237,29 +4241,29 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>102.4</v>
+        <v>67.5</v>
       </c>
       <c r="G106" t="n">
-        <v>204.8</v>
+        <v>67.5</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>controle remoto jfa redline wr longo alcance de longa distan</t>
+          <t>controle longa distancia jfa k1200</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4273,29 +4277,29 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>98.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="G107" t="n">
-        <v>197.8</v>
+        <v>67</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>conversor fio para rca remoto slim 12v jfa automotivo cd dvd</t>
+          <t>controle longa distancia jfa k1200 azul</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4309,29 +4313,29 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>38.97</v>
+        <v>66.66</v>
       </c>
       <c r="G108" t="n">
-        <v>194.85</v>
+        <v>66.66</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TOTAL SOUND</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>controle remoto universal longa distanci</t>
+          <t>controle remoto universal longa distancia jfa k1200 azul</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4345,13 +4349,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>61.62</v>
+        <v>66.66</v>
       </c>
       <c r="G109" t="n">
-        <v>184.86</v>
+        <v>66.66</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4362,12 +4366,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>equalizador e balanceador de baterias so</t>
+          <t>controle longa distancia jfa k1200 preto</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4384,26 +4388,26 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="G110" t="n">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ZARI PARTS</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>controle remoto universal longa distancia jfa k1200 vermelho</t>
+          <t>controle longa distancia jfa acqua 1200 resistente agua som cor preto</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4417,29 +4421,29 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>56.27</v>
+        <v>62</v>
       </c>
       <c r="G111" t="n">
-        <v>168.81</v>
+        <v>62</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>PEDROSO BIBI</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>combo jfa controle distancia k1200 br +</t>
+          <t>jfa k1200 preto cordao + central + controle longa distancia</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4456,26 +4460,26 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>141.55</v>
+        <v>61.73</v>
       </c>
       <c r="G112" t="n">
-        <v>141.55</v>
+        <v>61.73</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa k1200</t>
+          <t>controle longa distancia jfa k1200 acqua</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4489,13 +4493,13 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>67</v>
+        <v>59.84</v>
       </c>
       <c r="G113" t="n">
-        <v>134</v>
+        <v>59.84</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4506,12 +4510,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PEDROSO BIBI</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jfa k1200  controle longa distancia p/ p</t>
+          <t>controle remoto universal longa distancia jfa k1200 azul</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4525,13 +4529,13 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>63.64</v>
+        <v>57.23</v>
       </c>
       <c r="G114" t="n">
-        <v>127.28</v>
+        <v>57.23</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4542,12 +4546,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>controle remoto universal longa distancia jfa k1200 vermelho</t>
+          <t>filtro anti ruido jfa p/ rca cd dvd elet</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4561,29 +4565,29 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>61.19</v>
+        <v>55.71</v>
       </c>
       <c r="G115" t="n">
-        <v>122.38</v>
+        <v>55.71</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>CK SOUND</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>controle de long distanc jfa k1200 resis</t>
+          <t>filtro anti-ruido jfa rca eletromagnetic</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4597,29 +4601,29 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>59.99</v>
+        <v>45</v>
       </c>
       <c r="G116" t="n">
-        <v>119.98</v>
+        <v>45</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BRAZIL ACESSÓRIOS</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa redline wr</t>
+          <t>conversor fio para rca remoto slim 12v jfa automotivo cd dvd</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4636,26 +4640,26 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>110</v>
+        <v>43.6</v>
       </c>
       <c r="G117" t="n">
-        <v>110</v>
+        <v>43.6</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RADICALSOM 2</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa k600 + bara</t>
+          <t>conversor fio para rca remoto slim 12v j</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4669,29 +4673,29 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>54.99</v>
+        <v>43.6</v>
       </c>
       <c r="G118" t="n">
-        <v>109.98</v>
+        <v>43.6</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>WEIMPORTS228720241015195527</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>controle longa distancia redline wr apar</t>
+          <t>conversor fio para rca remoto slim 12v j</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4708,26 +4712,26 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>109</v>
+        <v>38.97</v>
       </c>
       <c r="G119" t="n">
-        <v>109</v>
+        <v>38.97</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EA AUDIO</t>
+          <t>OBVIUS ACOUSTIC BOX</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa redline wr</t>
+          <t>conversor fio p/ rca jfa remoto cd dvd r</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4744,26 +4748,26 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>105.99</v>
+        <v>37</v>
       </c>
       <c r="G120" t="n">
-        <v>105.99</v>
+        <v>37</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TIBAPARTS</t>
+          <t>HAYDAR20240604221250</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa redline wr</t>
+          <t>valvula de descarga rapida suspensor pne</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4780,31 +4784,31 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>104.9</v>
+        <v>29.92</v>
       </c>
       <c r="G121" t="n">
-        <v>104.9</v>
+        <v>29.92</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa k600 preto</t>
+          <t>fonte carregador de bateria jfa 200a lit</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>JFA ELETRONICOS</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4813,34 +4817,34 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>51.83</v>
+        <v>628.36</v>
       </c>
       <c r="G122" t="n">
-        <v>103.66</v>
+        <v>628.36</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>FONTE LITE 200A</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>filtro jfa anti ruido p/ toca cd dvd rad</t>
+          <t>voltimetro sequenciador automotivo digit</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>JFA ELETRONICOS</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4852,10 +4856,10 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>101.85</v>
+        <v>62.9</v>
       </c>
       <c r="G123" t="n">
-        <v>101.85</v>
+        <v>62.9</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -4866,17 +4870,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DIGITALSHOP SC</t>
+          <t>PEDROSO BIBI</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>controle longa distancia jfa redline wr</t>
+          <t>jfa vs5 hi sequenciador voltimetro medid</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>JFA</t>
+          <t>JFA ELETRONICOS</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4888,1092 +4892,12 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>101.68</v>
+        <v>60.79</v>
       </c>
       <c r="G124" t="n">
-        <v>101.68</v>
+        <v>60.79</v>
       </c>
       <c r="H124" t="inlineStr">
-        <is>
-          <t>CONTROLE REDLINE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>controle longa distancia jfa redline wr</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G125" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>CONTROLE REDLINE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>YTRIUM SHOP</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>controle longa distancia jfa redline wr</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>1</v>
-      </c>
-      <c r="F126" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="G126" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>CONTROLE REDLINE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>controle longa distancia jfa redline wr</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>91</v>
-      </c>
-      <c r="G127" t="n">
-        <v>91</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>CONTROLE REDLINE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>controle longa distancia jfa redline wr</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>90.78</v>
-      </c>
-      <c r="G128" t="n">
-        <v>90.78</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>CONTROLE REDLINE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>MUNDO ELETROSS</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>conversor fio para rca remoto slim 12v jfa automotivo cd dvd</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>2</v>
-      </c>
-      <c r="F129" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="G129" t="n">
-        <v>89</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>88.52</v>
-      </c>
-      <c r="G130" t="n">
-        <v>88.52</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>MUNDO ELETROSS</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>85</v>
-      </c>
-      <c r="G131" t="n">
-        <v>85</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>BASSAN PARTS</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>controle longa distancia jfa acqua k1200</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>84</v>
-      </c>
-      <c r="G132" t="n">
-        <v>84</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>LIKE PARTS</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>controle jfa resistente agua automotivo</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>83.63</v>
-      </c>
-      <c r="G133" t="n">
-        <v>83.63</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>controle remoto jfa redline wr longo alcance de longa distan</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>77</v>
-      </c>
-      <c r="G134" t="n">
-        <v>77</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>CONTROLE REDLINE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>OBVIUS ACOUSTIC BOX</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>conversor fio p/ rca jfa remoto cd dvd r</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>2</v>
-      </c>
-      <c r="F135" t="n">
-        <v>37</v>
-      </c>
-      <c r="G135" t="n">
-        <v>74</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>FANTINELLI IMPORT.</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>controle longa distancia jfa acqua 1200 resistente a agua</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>1</v>
-      </c>
-      <c r="F136" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="G136" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>SHOP ÁUDIO</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>controle jfa 1200 acqua de longa distaci</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>1</v>
-      </c>
-      <c r="F137" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="G137" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>CONTROLE ACQUA</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>PEDROSO BIBI</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>jfa k1200 preto cordao + central + controle longa distancia</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>1</v>
-      </c>
-      <c r="F138" t="n">
-        <v>61.73</v>
-      </c>
-      <c r="G138" t="n">
-        <v>61.73</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>FANTINELLI IMPORT.</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>controle remoto universal longa jfa k1200 preto c/ verde</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>60.46</v>
-      </c>
-      <c r="G139" t="n">
-        <v>60.46</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>controle a longa distancia jfa k600 completo 600 metros cor preto com verde</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>58.54</v>
-      </c>
-      <c r="G140" t="n">
-        <v>58.54</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>CONTROLE K600</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>FANTINELLI IMPORT.</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>controle longa distancia jfa k1200 preto/laranja 1200mt</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>57.13</v>
-      </c>
-      <c r="G141" t="n">
-        <v>57.13</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>SHOP PRÁTICO</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>filtro anti ruido jfa p/ rca cd dvd elet</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>55.71</v>
-      </c>
-      <c r="G142" t="n">
-        <v>55.71</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>PEDROSO BIBI</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>controle longa distancia jfa k600 completo preto e cinza</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>1</v>
-      </c>
-      <c r="F143" t="n">
-        <v>54.23</v>
-      </c>
-      <c r="G143" t="n">
-        <v>54.23</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>CONTROLE K600</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>controle remoto universal longa distancia jfa k1200 azul</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>54</v>
-      </c>
-      <c r="G144" t="n">
-        <v>54</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>CK SOUND</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>filtro anti-ruido jfa rca eletromagnetic</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>1</v>
-      </c>
-      <c r="F145" t="n">
-        <v>50.15</v>
-      </c>
-      <c r="G145" t="n">
-        <v>50.15</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>conversor de fio rca remoto slim jfa</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="G146" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>conversor fio para rca remoto slim 12v j</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>1</v>
-      </c>
-      <c r="F147" t="n">
-        <v>38.97</v>
-      </c>
-      <c r="G147" t="n">
-        <v>38.97</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>KOALA PARTS</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>fonte carregador de bateria jfa 120a lit</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>JFA ELETRONICOS</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>2</v>
-      </c>
-      <c r="F148" t="n">
-        <v>494.21</v>
-      </c>
-      <c r="G148" t="n">
-        <v>988.42</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>FONTE LITE 120A</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>fonte automotiva 70 amperes jfa storm carregador com cor preto</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>JFA ELETRONICOS</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>508.22</v>
-      </c>
-      <c r="G149" t="n">
-        <v>508.22</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>MUNDO ELETROSS</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>voltimetro e sequenciador jfa vs5hi baix</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>JFA ELETRONICOS</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>6</v>
-      </c>
-      <c r="F150" t="n">
-        <v>60</v>
-      </c>
-      <c r="G150" t="n">
-        <v>360</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>voltimetro sequenciador automotivo digit</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>JFA ELETRONICOS</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="G151" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>BANDA SOM</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>jfa vs5hi - medidor bateria digital led</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>JFA ELETRONICOS</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>52.72</v>
-      </c>
-      <c r="G152" t="n">
-        <v>210.88</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>BANDA SOM</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>jfa v12 - voltimetro medidor bateria dig</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>JFA ELETRONICOS</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>1</v>
-      </c>
-      <c r="F153" t="n">
-        <v>56.99</v>
-      </c>
-      <c r="G153" t="n">
-        <v>56.99</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>BANDA SOM</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>capa controle jfa k1200 - atencao: somen</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>JFA ELETRONICOS</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>1</v>
-      </c>
-      <c r="F154" t="n">
-        <v>33.24</v>
-      </c>
-      <c r="G154" t="n">
-        <v>33.24</v>
-      </c>
-      <c r="H154" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>

--- a/modelos_jfa.xlsx
+++ b/modelos_jfa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,14 +497,14 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
         <v>319</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26.158,00</t>
+          <t>18.183,00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímet</t>
+          <t>Inversor Senoidal Pura Jfa 3000w 48/220v Ger Rack</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>537.9299999999999</v>
+        <v>4930</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25.282,71</t>
+          <t>9.860,00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t xml:space="preserve">INVERSOR OFF GRID SENOIDAL PURA JFA 3000W C/  GER RACK </t>
         </is>
       </c>
     </row>
@@ -573,14 +573,14 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>536.49</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.364,90</t>
+          <t>6.437,88</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>606.11</v>
+        <v>453.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.848,88</t>
+          <t>5.895,50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A</t>
+          <t>FONTE LITE 120A</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,19 +649,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>622.9299999999999</v>
+        <v>308.63</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.737,58</t>
+          <t>4.938,08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>FONTE LITE 60A</t>
         </is>
       </c>
     </row>
@@ -687,14 +687,14 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>570.5700000000001</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.423,42</t>
+          <t>3.993,99</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>681.27</v>
+        <v>655.3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.406,35</t>
+          <t>3.931,80</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>FONTE LITE 200A MONO</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -763,31 +763,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>308.63</v>
+        <v>527.9</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.394,93</t>
+          <t>3.695,30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -801,31 +801,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>536.49</v>
+        <v>622.9299999999999</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.218,94</t>
+          <t>3.114,65</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE LITE 200A MONO</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Bob</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -839,19 +839,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>530.1</v>
+        <v>606.1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.180,60</t>
+          <t>3.030,50</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE LITE 200A</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>715.33</v>
+        <v>576.61</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.861,32</t>
+          <t>2.883,05</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>FONTE LITE 200A</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -915,31 +915,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>527.99</v>
+        <v>308.63</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.639,95</t>
+          <t>2.777,67</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE LITE 60A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Sli</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -953,31 +953,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>422.39</v>
+        <v>681.27</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.534,34</t>
+          <t>2.725,08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímet</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -994,28 +994,28 @@
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>496.26</v>
+        <v>537.9299999999999</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.481,30</t>
+          <t>2.689,65</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1032,28 +1032,28 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>576.61</v>
+        <v>622.9400000000001</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.306,44</t>
+          <t>2.491,76</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A</t>
+          <t>FONTE LITE 200A MONO</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1067,31 +1067,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>453.5</v>
+        <v>606.11</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.267,50</t>
+          <t>2.424,44</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>FONTE LITE 200A</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1105,31 +1105,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F18" t="n">
-        <v>715.34</v>
+        <v>53.9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.146,02</t>
+          <t>2.317,70</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>Ls Distribuidora</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Longa Distância Jfa Redline</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1143,19 +1143,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>536.49</v>
+        <v>102.4</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.145,96</t>
+          <t>2.252,80</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1181,31 +1181,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>422.39</v>
+        <v>367.38</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.111,95</t>
+          <t>2.204,28</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>FONTE LITE 70A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivo</t>
+          <t>Fonte Carregador Automotivo Jfa 70a Stor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1219,31 +1219,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>527.9</v>
+        <v>345.65</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.111,60</t>
+          <t>2.073,90</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1257,31 +1257,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>53.9</v>
+        <v>681.26</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.102,10</t>
+          <t>2.043,78</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Inversor 24v Para 110v Senoidal Pura 200</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1295,31 +1295,31 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>655.3</v>
+        <v>1932</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.965,90</t>
+          <t>1.932,00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>INVERSOR OFF GRID SENOIDAL PURA JFA 2000W</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Inversor Onda Senoidal Pura Jfa 2000w 12v 110v Pico 4000w</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1333,31 +1333,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>622.9400000000001</v>
+        <v>1921.78</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.868,82</t>
+          <t>1.921,78</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>INVERSOR OFF GRID SENOIDAL PURA JFA 2000W</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
+      <c r="A25" t="n">
+        <v>309761</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+          <t>Fonte Retificadora Jfa 24v/15a</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1374,28 +1372,28 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1767.22</v>
+        <v>1899.9</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.767,22</t>
+          <t>1.899,90</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>INVERSOR OFF GRID SENOIDAL PURA JFA 2000W</t>
+          <t>FONTE NOBREAK 24V/15A</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1409,31 +1407,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>576.22</v>
+        <v>374.7</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.728,66</t>
+          <t>1.873,50</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1450,28 +1448,28 @@
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>570.5700000000001</v>
+        <v>622.9299999999999</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.711,71</t>
+          <t>1.868,79</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE LITE 200A MONO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Sto</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1488,28 +1486,28 @@
         <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>527.98</v>
+        <v>576.61</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.583,94</t>
+          <t>1.729,83</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Inversor 12v Para 110v Senoidal Pura 1500w Pico 3000w Jfa</t>
+          <t>Inversor Jfa 2000w 24v 220v Off-grid Sen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1526,28 +1524,28 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1406</v>
+        <v>1696.7</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.406,00</t>
+          <t>1.696,70</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>INVERSOR OFF GRID SENOIDAL PURA JFA 1500W</t>
+          <t>INVERSOR OFF GRID SENOIDAL PURA JFA 2000W</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Inversor 12v Para 110v Senoidal Pura 150</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1561,31 +1559,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>1406</v>
+        <v>536.49</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.406,00</t>
+          <t>1.609,47</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>INVERSOR OFF GRID SENOIDAL PURA JFA 1500W</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1599,31 +1597,31 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>456.45</v>
+        <v>400.24</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.369,35</t>
+          <t>1.600,96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>PIKADULA PARTS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1637,19 +1635,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>681.27</v>
+        <v>527.99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.362,54</t>
+          <t>1.583,97</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1659,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa 50a Lite Slim Bivol</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1675,31 +1673,31 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>57.9</v>
+        <v>301.71</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.331,70</t>
+          <t>1.508,55</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>FONTE LITE 50A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1713,19 +1711,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>630.17</v>
+        <v>484.87</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.260,34</t>
+          <t>1.454,61</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>FONTE LITE 120A</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1735,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1754,28 +1752,28 @@
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>622.9400000000001</v>
+        <v>715.34</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.245,88</t>
+          <t>1.430,68</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Voltímetr</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1792,11 +1790,11 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>622.9299999999999</v>
+        <v>715.33</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.245,86</t>
+          <t>1.430,66</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1808,12 +1806,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1827,19 +1825,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F37" t="n">
-        <v>308.63</v>
+        <v>53.9</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.234,52</t>
+          <t>1.293,60</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1849,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 50a Lite Slim Bivol</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1865,31 +1863,31 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>301.71</v>
+        <v>422.39</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.206,84</t>
+          <t>1.267,17</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>FONTE LITE 50A</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1903,31 +1901,31 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>49.9</v>
+        <v>417.28</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.197,60</t>
+          <t>1.251,84</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1941,31 +1939,31 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>78.90000000000001</v>
+        <v>622.9400000000001</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.104,60</t>
+          <t>1.245,88</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>FONTE LITE 200A MONO</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivo</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1979,31 +1977,31 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>367.38</v>
+        <v>308.63</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.102,14</t>
+          <t>1.234,52</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>FONTE LITE 70A</t>
+          <t>FONTE LITE 60A</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivo</t>
+          <t>Fonte Automotiva 150a Jfa Carregador Sli</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2017,31 +2015,31 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>367.38</v>
+        <v>598.59</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.102,14</t>
+          <t>1.197,18</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>FONTE LITE 70A</t>
+          <t>FONTE 150A</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2055,31 +2053,31 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>53.9</v>
+        <v>587.6</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.078,00</t>
+          <t>1.175,20</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Stor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2093,31 +2091,31 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>527.9</v>
+        <v>357.67</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.055,80</t>
+          <t>1.073,01</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2131,31 +2129,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>90.78</v>
+        <v>527.98</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>998,58</t>
+          <t>1.055,96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DIGITALSHOP SC</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Biv</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2169,19 +2167,19 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>484.87</v>
+        <v>90.78</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>969,74</t>
+          <t>907,80</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2224,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DIGITALSHOP SC</t>
+          <t>RADICALSOM 2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+          <t>Fonte Carregador Bateria Jfa 200a Sci Or</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2245,31 +2243,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>442.82</v>
+        <v>871.25</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>885,64</t>
+          <t>871,25</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>Ls Distribuidora</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa K1200</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2283,31 +2281,31 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F49" t="n">
-        <v>422.39</v>
+        <v>67</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>844,78</t>
+          <t>871,00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Storm Slim</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2324,11 +2322,11 @@
         <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>422.38</v>
+        <v>422.39</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>844,76</t>
+          <t>844,78</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2340,12 +2338,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Storm</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2362,28 +2360,28 @@
         <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>401.22</v>
+        <v>422.39</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>802,44</t>
+          <t>844,78</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2397,31 +2395,31 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>715.33</v>
+        <v>422.38</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>715,33</t>
+          <t>844,76</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2435,31 +2433,31 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>681.26</v>
+        <v>418.95</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>681,26</t>
+          <t>837,90</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 20</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2473,31 +2471,31 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>681.26</v>
+        <v>49.9</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>681,26</t>
+          <t>798,40</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>FONTE 200A</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2511,31 +2509,31 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>330.17</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>660,34</t>
+          <t>789,00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>FONTE LITE 60A</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa 90a Bob Storm Slim </t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2552,28 +2550,28 @@
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>319</v>
+        <v>374.7</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>638,00</t>
+          <t>749,40</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Slim Bivolt Sis</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2587,31 +2585,31 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>622.9299999999999</v>
+        <v>374.69</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>622,93</t>
+          <t>749,38</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A MONO</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DIGITALSHOP SC</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Biv</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 20</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2628,28 +2626,28 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>606.11</v>
+        <v>742.42</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>606,11</t>
+          <t>742,42</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>FONTE LITE 200A</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 150a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2666,16 +2664,16 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>598.59</v>
+        <v>715.33</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>598,59</t>
+          <t>715,33</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FONTE 150A</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2685,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2701,19 +2699,19 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>587.59</v>
+        <v>57.9</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>587,59</t>
+          <t>694,80</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
@@ -2725,7 +2723,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2739,31 +2737,31 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>57.9</v>
+        <v>681.27</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>579,00</t>
+          <t>681,27</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt S</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2780,16 +2778,16 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>570.5599999999999</v>
+        <v>681.27</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>570,56</t>
+          <t>681,27</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2799,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carreg</t>
+          <t>Fonte Carregador Automotiva Storm Sci Re</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2818,28 +2816,28 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>570.5599999999999</v>
+        <v>681.26</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>570,56</t>
+          <t>681,26</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120 Amperes Sistema</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2853,31 +2851,31 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>536.49</v>
+        <v>340.63</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>536,49</t>
+          <t>681,26</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>FONTE 120A</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2894,28 +2892,28 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>527.99</v>
+        <v>622.9299999999999</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>527,99</t>
+          <t>622,93</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE LITE 200A MONO</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>PIKADULA PARTS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2929,31 +2927,31 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>488.39</v>
+        <v>308.63</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>488,39</t>
+          <t>617,26</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>FONTE BOB 200A</t>
+          <t>FONTE LITE 60A</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa 150a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2970,28 +2968,28 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>484.88</v>
+        <v>598.59</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>484,88</t>
+          <t>598,59</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>FONTE 150A</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3008,16 +3006,16 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>484.87</v>
+        <v>587.59</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>587,59</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3027,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Lite Biv</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3046,16 +3044,16 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>484.87</v>
+        <v>587.59</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>587,59</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3065,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Biv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3084,28 +3082,28 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>484.87</v>
+        <v>587.59</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>484,87</t>
+          <t>587,59</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>REDE AUTOPARTS</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3122,28 +3120,28 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>456.45</v>
+        <v>570.5700000000001</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>456,45</t>
+          <t>570,57</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carreg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3160,28 +3158,28 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>453.51</v>
+        <v>570.5599999999999</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>453,51</t>
+          <t>570,56</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>KOALA PARTS 2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medi</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3198,28 +3196,28 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>444.6</v>
+        <v>536.5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>444,60</t>
+          <t>536,50</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Re</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3236,28 +3234,28 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>442.83</v>
+        <v>536.5</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>442,83</t>
+          <t>536,50</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3274,28 +3272,28 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>442.83</v>
+        <v>536.49</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>442,83</t>
+          <t>536,49</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Biv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3312,28 +3310,28 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>442.83</v>
+        <v>484.88</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>442,83</t>
+          <t>484,88</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>FONTE LITE 120A</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>PIKADULA PARTS</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3347,31 +3345,31 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>54.9</v>
+        <v>484.88</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>439,20</t>
+          <t>484,88</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>FONTE LITE 120A</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 </t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3385,31 +3383,31 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>85</v>
+        <v>484.87</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>425,00</t>
+          <t>484,87</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>FONTE LITE 120A</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivol</t>
+          <t>Qdcc Pdu - Quadro De Distribuição Jfa</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3426,28 +3424,28 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>423.7</v>
+        <v>482</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>423,70</t>
+          <t>482,00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>PDU / QDCC - QUADRO DE DISTRIBUIÇÃO</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>DIGITALSHOP SC</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Storm Slim</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3464,11 +3462,11 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>422.38</v>
+        <v>456.44</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>422,38</t>
+          <t>456,44</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3480,12 +3478,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Ca</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3502,28 +3500,28 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>422.38</v>
+        <v>442.83</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>422,38</t>
+          <t>442,83</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>DIGITALSHOP SC</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3540,11 +3538,11 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>417.28</v>
+        <v>442.82</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>417,28</t>
+          <t>442,82</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3556,12 +3554,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t xml:space="preserve">Fonte Carregador Jfa Storm 70a Bivolt - </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3578,11 +3576,11 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>417.27</v>
+        <v>442.82</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>417,27</t>
+          <t>442,82</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3594,12 +3592,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DIGITALSHOP SC</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3616,28 +3614,28 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>417.27</v>
+        <v>422.39</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>417,27</t>
+          <t>422,39</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3654,28 +3652,28 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>417.27</v>
+        <v>422.38</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>417,27</t>
+          <t>422,38</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FONTE 70A</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3692,28 +3690,28 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>400.25</v>
+        <v>417.27</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>400,25</t>
+          <t>417,27</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>Ls Distribuidora</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Ca</t>
+          <t>Fonte Automotiva Jfa 70a Storm</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3730,28 +3728,28 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>400.25</v>
+        <v>401.22</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>400,25</t>
+          <t>401,22</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Ca</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3768,11 +3766,11 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>400.24</v>
+        <v>400.25</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>400,24</t>
+          <t>400,25</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3784,12 +3782,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 90a Bivol</t>
+          <t xml:space="preserve">Fonte Carregador Jfa Storm 60a Bivolt - </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3806,28 +3804,28 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>379</v>
+        <v>400.24</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>379,00</t>
+          <t>400,24</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>FONTE BOB 90A</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3841,31 +3839,31 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>374.7</v>
+        <v>54.9</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>374,70</t>
+          <t>384,30</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SHOP ÁUDIO</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregadora Jfa 90a Para Caixa Som</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3882,28 +3880,28 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>374.69</v>
+        <v>376.2</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>374,69</t>
+          <t>376,20</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>FONTE BOB 90A</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Slim Bivolt Sis</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3920,11 +3918,11 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>374.69</v>
+        <v>374.7</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>374,69</t>
+          <t>374,70</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3936,12 +3934,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva Carregador De Bateria J</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3974,12 +3972,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenci</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3993,31 +3991,31 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>49.4</v>
+        <v>374.69</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>345,80</t>
+          <t>374,69</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>VOLTIMETRO SEQUENCIADOR</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivo</t>
+          <t>Fonte Carregador Jfa 70a Lite Bivolt Sci</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4034,11 +4032,11 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>345.66</v>
+        <v>345.65</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>345,66</t>
+          <t>345,65</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4050,12 +4048,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>KOALA PARTS 2</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivo</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4072,28 +4070,28 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>340.63</v>
+        <v>345.65</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>340,63</t>
+          <t>345,65</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>FONTE 40A</t>
+          <t>FONTE LITE 70A</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte E Carregador Bateria Bivolt Jfa St</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4110,28 +4108,28 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>336.33</v>
+        <v>340.63</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>336,33</t>
+          <t>340,63</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>FONTE LITE 40A</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>KOALA PARTS</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4145,26 +4143,26 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>39.9</v>
+        <v>340.63</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>319,20</t>
+          <t>340,63</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>CONVERSOR</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>PIKADULA PARTS</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4186,11 +4184,11 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>308.63</v>
+        <v>330.17</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>330,17</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4202,7 +4200,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PIKADULA PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4224,11 +4222,11 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>308.63</v>
+        <v>330.17</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>330,17</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4240,7 +4238,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4262,11 +4260,11 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>308.63</v>
+        <v>330.17</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>330,17</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4278,12 +4276,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Stor</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4300,28 +4298,28 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>308.63</v>
+        <v>309.7</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>308,63</t>
+          <t>309,70</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>FONTE LITE 60A</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>WE MARKET</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio M</t>
+          <t>Controle De Longa Distância Jfa Acqua 12</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4338,28 +4336,28 @@
         <v>5</v>
       </c>
       <c r="F103" t="n">
-        <v>61.5</v>
+        <v>58.16</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>307,50</t>
+          <t>290,80</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>FILTRO ANTI-RUIDO</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>VETA ACESSÓRIOS</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Controle Jfa Acqua K1200 Longa Distancia</t>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4373,31 +4371,31 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>75</v>
+        <v>54.9</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>274,50</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>REDE AUTOPARTS</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa 1200mtr Wr P/ 99% Dos Aparelhos</t>
+          <t>Modulo Amplificador Jfa Ap 380x4 Rms 4 Canais Potência Cor Preto</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4411,31 +4409,31 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>89</v>
+        <v>264</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>267,00</t>
+          <t>264,00</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>AMPLIFICADOR</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 </t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4449,31 +4447,31 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F106" t="n">
-        <v>84</v>
+        <v>52.01</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>252,00</t>
+          <t>260,05</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>OBVIUS ACOUSTIC BOX</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 </t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd R</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4487,19 +4485,19 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F107" t="n">
-        <v>57.87</v>
+        <v>37</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>231,48</t>
+          <t>222,00</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>CONVERSOR</t>
         </is>
       </c>
     </row>
@@ -4544,12 +4542,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BASSAN PARTS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 </t>
+          <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenci</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4563,29 +4561,31 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F109" t="n">
-        <v>68.40000000000001</v>
+        <v>49.4</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>205,20</t>
+          <t>197,60</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>VOLTIMETRO SEQUENCIADOR</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>525709</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>GRUPO AUDIOVOX</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa Redline</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4602,28 +4602,28 @@
         <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>99.11</v>
+        <v>98.42</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>198,22</t>
+          <t>196,84</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>VETA ACESSÓRIOS</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Redline Wr </t>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4637,31 +4637,31 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F111" t="n">
-        <v>98.90000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>197,80</t>
+          <t>189,30</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Rad</t>
+          <t>Equalizador E Balanceador De Baterias So</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4675,19 +4675,19 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>190,00</t>
+          <t>184,00</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>FILTRO ANTI-RUIDO</t>
+          <t>EQUALIZADOR</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Redline Wr </t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4713,31 +4713,31 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
-        <v>54.9</v>
+        <v>89</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>164,70</t>
+          <t>178,00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Conversor De Fio Rca Remoto Slim Jfa</t>
+          <t>Controle Longa Distancia Jfa 1200mtr Wr P/ 99% Dos Aparelhos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4751,31 +4751,31 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F114" t="n">
-        <v>39.9</v>
+        <v>89</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>159,60</t>
+          <t>178,00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>CONVERSOR</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SUPERTRIO SOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resis</t>
+          <t>Filtro Rca Anti-ruído Jfa</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4789,86 +4789,90 @@
         </is>
       </c>
       <c r="E115" t="n">
+        <v>3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>176,70</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>FILTRO ANTI-RUIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Filtro Eliminador De Ruído Rca Blindagem</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>57.76</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>173,28</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>FILTRO ANTI-RUIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Ls Distribuidora</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
         <v>2</v>
       </c>
-      <c r="F115" t="n">
-        <v>59.99</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>119,98</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>29464</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Para Rádio Pion</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>1</v>
-      </c>
-      <c r="F116" t="n">
-        <v>119.9</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>119,90</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>35284</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>1</v>
-      </c>
       <c r="F117" t="n">
-        <v>118.82</v>
+        <v>85</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>118,82</t>
+          <t>170,00</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -4880,12 +4884,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 12</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4899,31 +4903,31 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>58.16</v>
+        <v>54.9</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>116,32</t>
+          <t>164,70</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Controle Remoto Universal Longa Jfa K120</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4937,14 +4941,14 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>57.9</v>
+        <v>52.01</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>115,80</t>
+          <t>156,03</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4954,14 +4958,12 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>TOPSHITECH</t>
-        </is>
+      <c r="A120" t="n">
+        <v>527740</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto/</t>
+          <t>Controle Longa Distância Jfa K1200 1200 M + Central E Cordão Cor Azul</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4975,31 +4977,29 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F120" t="n">
-        <v>56.94</v>
+        <v>51.14</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>113,88</t>
+          <t>153,42</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
+      <c r="A121" t="n">
+        <v>47110</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filtro Anti Ruido Jfa Rca Com Blindagem </t>
+          <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Elet</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5016,11 +5016,11 @@
         <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>52.71</v>
+        <v>74</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>105,42</t>
+          <t>148,00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5032,12 +5032,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BASSAN PARTS</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K120</t>
+          <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5054,28 +5054,28 @@
         <v>2</v>
       </c>
       <c r="F122" t="n">
-        <v>52.01</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>104,02</t>
+          <t>136,80</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Redline Wr </t>
+          <t>Conversor De Fio Rca Remoto Slim Jfa</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5089,31 +5089,29 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F123" t="n">
-        <v>90.78</v>
+        <v>39.9</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>90,78</t>
+          <t>119,70</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>CONVERSOR</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>OBVIUS ACOUSTIC BOX</t>
-        </is>
+      <c r="A124" t="n">
+        <v>487758</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd R</t>
+          <t>Kit 04 Bobinas Falantes Ultravox 550 (ka</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5127,31 +5125,31 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>88,00</t>
+          <t>119,00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>CONVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BRO E-COMMERCE</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente Água Som Cor Preto</t>
+          <t xml:space="preserve">Controle Distancia Jfa Red Line Pioneer </t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5168,28 +5166,28 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>87.90000000000001</v>
+        <v>117.52</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>87,90</t>
+          <t>117,52</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 </t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5203,14 +5201,14 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>84</v>
+        <v>57.87</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>84,00</t>
+          <t>115,74</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5220,14 +5218,12 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>EXTREME ÁUDIO</t>
-        </is>
+      <c r="A127" t="n">
+        <v>13496</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 600 Me</t>
+          <t>Controle Jfa Acqua K1200 Longa Distancia</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5244,28 +5240,28 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>79.42</v>
+        <v>108.72</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>79,42</t>
+          <t>108,72</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TEM ONLINE</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnétic</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5279,31 +5275,31 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
-        <v>79.11</v>
+        <v>53.89</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>79,11</t>
+          <t>107,78</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>CONTROLE ACQUA</t>
+          <t>FILTRO ANTI-RUIDO</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>VETA ACESSÓRIOS</t>
+          <t>SUPERTRIO SOM</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 120</t>
+          <t>Controle Longa Distância Jfa K600 Comple</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5317,31 +5313,31 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F129" t="n">
-        <v>78.90000000000001</v>
+        <v>52.11</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>78,90</t>
+          <t>104,22</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TOPSHITECH</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Cor V</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Redline Wr </t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5358,28 +5354,28 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>74.98999999999999</v>
+        <v>90.78</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>74,99</t>
+          <t>90,78</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ZARI PARTS</t>
+          <t>OBVIUS ACOUSTIC BOX</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd R</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5393,29 +5389,31 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>74.8</v>
+        <v>44</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>74,80</t>
+          <t>88,00</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>CONTROLE REDLINE</t>
+          <t>CONVERSOR</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>47110</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Ls Distribuidora</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa P/ Rca Cd Dvd Tira</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5432,28 +5430,28 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>74,00</t>
+          <t>85,00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>FILTRO ANTI-RUIDO</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa K1200 Completo ( Central + Controle </t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5470,28 +5468,28 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>64.98999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>64,99</t>
+          <t>84,90</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>VETA ACESSÓRIOS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distância Jfa Aqua 1200me</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5508,11 +5506,11 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>63.1</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>63,10</t>
+          <t>84,90</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -5524,12 +5522,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>LIKE PARTS</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Verme</t>
+          <t xml:space="preserve">Controle Longa Distância Jfa Para Rádio </t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5546,11 +5544,11 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>61.9</v>
+        <v>79.58</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>61,90</t>
+          <t>79,58</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5562,12 +5560,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>VETA ACESSÓRIOS</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Controle Longa Distância Jfa Redline 120</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5584,28 +5582,28 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>61.9</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>61,90</t>
+          <t>78,90</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BRO E-COMMERCE</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Supressor Eletroma</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Redline Wr </t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5622,28 +5620,28 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>61.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>61,02</t>
+          <t>78,90</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>FILTRO ANTI-RUIDO</t>
+          <t>CONTROLE REDLINE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>VETA ACESSÓRIOS</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Filtro Rca Anti-ruído Jfa</t>
+          <t>Controle Jfa Acqua K1200 Longa Distancia</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5660,66 +5658,64 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>58.9</v>
+        <v>75</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>58,90</t>
+          <t>75,00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
+          <t>CONTROLE K1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>47110</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Filtro Anti Ruido Jfa P/ Rca Cd Dvd Tira</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>74</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>74,00</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
           <t>FILTRO ANTI-RUIDO</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>TAMANDARÉ</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>JFA</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>57,90</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Verme</t>
+          <t>Controle Remoto Universal Longa Distânci</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5736,16 +5732,16 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>57.9</v>
+        <v>71.09</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>71,09</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5753,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5774,28 +5770,28 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>57.9</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>57,90</t>
+          <t>68,90</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>CONTROLE K1200</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TAMANDARÉ</t>
+          <t>BANDA SOM</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Laranja/preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5812,28 +5808,28 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>54.9</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>54,90</t>
+          <t>65,32</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>CONTROLE ACQUA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa K1200 P</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5850,11 +5846,11 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>54.15</v>
+        <v>61.9</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>54,15</t>
+          <t>61,90</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -5866,12 +5862,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ZARI PARTS</t>
+          <t>TOTAL SOUND</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Completo Top</t>
+          <t>Controle Longa Distancia Jfa K1200 Verme</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5888,11 +5884,11 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>54</v>
+        <v>61.62</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>54,00</t>
+          <t>61,62</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -5909,7 +5905,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distânci</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5926,28 +5922,28 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>53.9</v>
+        <v>56.31</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>53,90</t>
+          <t>56,31</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>CONTROLE K600</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ELETRONICA TWO</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Controle Jfa 1200 Longa Distancia Univer</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5964,11 +5960,11 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>52.01</v>
+        <v>55.07</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>52,01</t>
+          <t>55,07</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -5985,7 +5981,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa K600 Preto </t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6002,11 +5998,11 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>49.9</v>
+        <v>54.9</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>49,90</t>
+          <t>54,90</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6018,12 +6014,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>TOPSHITECH</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v J</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6040,16 +6036,16 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>38.97</v>
+        <v>54.75</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>38,97</t>
+          <t>54,75</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>CONVERSOR</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6057,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Controle Universal Longa Distância Jfa K</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6078,28 +6074,28 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>38.97</v>
+        <v>53.9</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>38,97</t>
+          <t>53,90</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>CONVERSOR</t>
+          <t>CONTROLE K1200</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>WE MARKET</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t xml:space="preserve">Filtro Anti Ruido Jfa Rca Com Blindagem </t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6116,16 +6112,16 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>37.99</v>
+        <v>52.71</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>37,99</t>
+          <t>52,71</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>CONVERSOR</t>
+          <t>FILTRO ANTI-RUIDO</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6133,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Conversor Rca Jfa Slim Com Comando Remot</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa K600 Preto </t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6154,28 +6150,28 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>37.9</v>
+        <v>49.9</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>37,90</t>
+          <t>49,90</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>CONVERSOR</t>
+          <t>CONTROLE K600</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>OBVIUS ACOUSTIC BOX</t>
+          <t>PEDROSO BIBI</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd R</t>
+          <t>Voltimetro Digiltal Jfa V12 Slim Saída R</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6192,33 +6188,33 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>37</v>
+        <v>48.94</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>37,00</t>
+          <t>48,94</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>CONVERSOR</t>
+          <t>VOLTIMETRO SEQUENCIADOR</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BANDA SOM</t>
+          <t>OBVIUS ACOUSTIC BOX</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Jfa 60 A Slim Sci Fonte Carregador Bater</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>JFA ELETRONICOS</t>
+          <t>JFA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6230,33 +6226,33 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>459</v>
+        <v>44</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>459,00</t>
+          <t>44,00</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>FONTE 60A</t>
+          <t>CONVERSOR</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>KOALA PARTS</t>
+          <t>TAMANDARÉ</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 120a Lit</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>JFA ELETRONICOS</t>
+          <t>JFA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6268,90 +6264,168 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>453.51</v>
+        <v>39.9</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>453,51</t>
+          <t>39,90</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>FONTE LITE 120A</t>
+          <t>CONVERSOR</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
+          <t>TELSOM SP</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Conversor De Fio Rca Remoto Slim Jfa 12v</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>JFA</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>38.43</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>38,43</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>CONVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 120a Lit</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>JFA ELETRONICOS</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>453.51</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2.267,55</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>FONTE LITE 120A</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SUPERTRIO SOM</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>JFA ELETRONICOS</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>442.82</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>442,82</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>FONTE 70A</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
           <t>TAMANDARÉ</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Voltímetro Sequenciador Automotivo Digit</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>JFA ELETRONICOS</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>2</v>
-      </c>
-      <c r="F155" t="n">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>7</v>
+      </c>
+      <c r="F158" t="n">
         <v>62.9</v>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>125,80</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>440,30</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
         <is>
           <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>487758</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Jfa Vs5hi - Sequenciador Voltímetro Medi</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>JFA ELETRONICOS</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>2</v>
-      </c>
-      <c r="F156" t="n">
-        <v>51.26</v>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>102,52</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>VOLTIMETRO SEQUENCIADOR</t>
         </is>
       </c>
     </row>
